--- a/en/application_framework/application_framework/handlers/images/HttpCharacterEncodingHandler/images.xlsx
+++ b/en/application_framework/application_framework/handlers/images/HttpCharacterEncodingHandler/images.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tie303177\work\ssd\oss\nablarch-document\en\application_framework\application_framework\handlers\images\HttpCharacterEncodingHandler\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D17EB28-8EE9-4064-9A4D-6E0400B5B8DF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="28035" windowHeight="14580"/>
+    <workbookView xWindow="855" yWindow="1815" windowWidth="13200" windowHeight="11535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="web" sheetId="1" r:id="rId1"/>
@@ -28,7 +34,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -92,6 +98,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -100,29 +109,37 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="角丸四角形 18"/>
+        <xdr:cNvPr id="19" name="角丸四角形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="800100" y="238125"/>
-          <a:ext cx="2800350" cy="2847975"/>
+          <a:off x="800099" y="238125"/>
+          <a:ext cx="3505201" cy="2847975"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
-          <a:avLst/>
+          <a:avLst>
+            <a:gd name="adj" fmla="val 9644"/>
+          </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
@@ -149,14 +166,7 @@
               <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>HTTP</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>文字エンコード制御ハンドラ</a:t>
+            <a:t>Http character encoding control handler</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -165,26 +175,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="角丸四角形 19"/>
+        <xdr:cNvPr id="20" name="角丸四角形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1085850" y="685800"/>
-          <a:ext cx="2257425" cy="514350"/>
+          <a:off x="1362075" y="723900"/>
+          <a:ext cx="2457450" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -219,25 +235,8 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>HttpServletRequest</a:t>
+            <a:t>Configure the specified character encoding in HttpServletRequest</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>に規定の文字エンコーディングを設定</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000" baseline="0">
-            <a:effectLst/>
-            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -245,26 +244,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="角丸四角形 20"/>
+        <xdr:cNvPr id="21" name="角丸四角形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1085850" y="2400300"/>
-          <a:ext cx="2257425" cy="342900"/>
+          <a:off x="1362075" y="2438400"/>
+          <a:ext cx="2457450" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -290,18 +295,13 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
               <a:effectLst/>
               <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>後続ハンドラの呼び出し</a:t>
+            <a:t>Call subsequent handler</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000" baseline="0">
-            <a:effectLst/>
-            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -309,20 +309,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>14288</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>14288</xdr:colOff>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="直線矢印コネクタ 21"/>
+        <xdr:cNvPr id="22" name="直線矢印コネクタ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="20" idx="2"/>
           <a:endCxn id="26" idx="0"/>
@@ -330,7 +336,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2214563" y="1200150"/>
+          <a:off x="2590800" y="1238250"/>
           <a:ext cx="0" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -359,26 +365,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>180973</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="角丸四角形 23"/>
+        <xdr:cNvPr id="24" name="角丸四角形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4000499" y="2228850"/>
-          <a:ext cx="1600200" cy="685800"/>
+          <a:off x="4781548" y="2371725"/>
+          <a:ext cx="1924051" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -404,11 +416,11 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1300" baseline="0">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1300" baseline="0">
               <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>後続ハンドラ</a:t>
+            <a:t>Subsequent handler</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -417,20 +429,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>180973</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="直線矢印コネクタ 24"/>
+        <xdr:cNvPr id="25" name="直線矢印コネクタ 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="21" idx="3"/>
           <a:endCxn id="24" idx="1"/>
@@ -438,8 +456,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3343275" y="2571750"/>
-          <a:ext cx="657224" cy="0"/>
+          <a:off x="3819525" y="2609850"/>
+          <a:ext cx="962023" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -467,26 +485,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="角丸四角形 25"/>
+        <xdr:cNvPr id="26" name="角丸四角形 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1085850" y="1543050"/>
-          <a:ext cx="2257425" cy="514350"/>
+          <a:off x="1362075" y="1581150"/>
+          <a:ext cx="2457450" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -521,25 +545,8 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>HttpServletResponse</a:t>
+            <a:t>Configure the specified character encoding in HttpServletResponse</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>に規定の文字エンコーディングを設定</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000" baseline="0">
-            <a:effectLst/>
-            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -547,20 +554,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>14288</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>14288</xdr:colOff>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="直線矢印コネクタ 26"/>
+        <xdr:cNvPr id="27" name="直線矢印コネクタ 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="26" idx="2"/>
           <a:endCxn id="21" idx="0"/>
@@ -568,7 +581,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2214563" y="2057400"/>
+          <a:off x="2590800" y="2095500"/>
           <a:ext cx="0" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -615,7 +628,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="角丸四角形 1"/>
+        <xdr:cNvPr id="2" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -673,7 +692,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="角丸四角形 2"/>
+        <xdr:cNvPr id="3" name="角丸四角形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -753,7 +778,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="直線矢印コネクタ 3"/>
+        <xdr:cNvPr id="4" name="直線矢印コネクタ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2" idx="3"/>
           <a:endCxn id="3" idx="1"/>
@@ -803,7 +834,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="角丸四角形 4"/>
+        <xdr:cNvPr id="5" name="角丸四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -875,7 +912,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="直線矢印コネクタ 5"/>
+        <xdr:cNvPr id="6" name="直線矢印コネクタ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="3"/>
           <a:endCxn id="5" idx="1"/>
@@ -925,7 +968,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="角丸四角形 6"/>
+        <xdr:cNvPr id="7" name="角丸四角形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -993,7 +1042,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="直線矢印コネクタ 8"/>
+        <xdr:cNvPr id="9" name="直線矢印コネクタ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="7" idx="3"/>
           <a:endCxn id="10" idx="1"/>
@@ -1043,7 +1098,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="角丸四角形 9"/>
+        <xdr:cNvPr id="10" name="角丸四角形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1101,7 +1162,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="角丸四角形 7"/>
+        <xdr:cNvPr id="8" name="角丸四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1159,7 +1226,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="角丸四角形 16"/>
+        <xdr:cNvPr id="17" name="角丸四角形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1223,7 +1296,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="角丸四角形 17"/>
+        <xdr:cNvPr id="18" name="角丸四角形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1287,7 +1366,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="直線矢印コネクタ 18"/>
+        <xdr:cNvPr id="19" name="直線矢印コネクタ 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="17" idx="2"/>
           <a:endCxn id="18" idx="0"/>
@@ -1337,7 +1422,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="角丸四角形 21"/>
+        <xdr:cNvPr id="22" name="角丸四角形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1417,7 +1508,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="29" name="直線矢印コネクタ 28"/>
+        <xdr:cNvPr id="29" name="直線矢印コネクタ 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="18" idx="2"/>
           <a:endCxn id="22" idx="0"/>
@@ -1467,7 +1564,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="角丸四角形 45"/>
+        <xdr:cNvPr id="46" name="角丸四角形 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1531,7 +1634,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="47" name="直線矢印コネクタ 46"/>
+        <xdr:cNvPr id="47" name="直線矢印コネクタ 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="22" idx="2"/>
           <a:endCxn id="46" idx="0"/>
@@ -1581,7 +1690,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="角丸四角形 50"/>
+        <xdr:cNvPr id="51" name="角丸四角形 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1639,7 +1754,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="52" name="直線矢印コネクタ 51"/>
+        <xdr:cNvPr id="52" name="直線矢印コネクタ 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="18" idx="3"/>
           <a:endCxn id="51" idx="1"/>
@@ -1689,7 +1810,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="角丸四角形 56"/>
+        <xdr:cNvPr id="57" name="角丸四角形 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000039000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1747,7 +1874,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="58" name="直線矢印コネクタ 57"/>
+        <xdr:cNvPr id="58" name="直線矢印コネクタ 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="46" idx="3"/>
           <a:endCxn id="57" idx="1"/>
@@ -1786,7 +1919,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1828,7 +1961,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1861,9 +1994,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1896,6 +2046,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2071,11 +2238,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+      <selection activeCell="AE27" sqref="AE27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2088,7 +2255,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:B14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
